--- a/Cavalry2023stats.xlsx
+++ b/Cavalry2023stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6C7C9E-D7CF-4257-80C5-913EC94181EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0BDA6B-10C6-4CE0-A95E-7C3689CAEF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="136">
   <si>
     <t>Date</t>
   </si>
@@ -422,6 +422,12 @@
   </si>
   <si>
     <t>Final</t>
+  </si>
+  <si>
+    <t>PPDA 1st Half</t>
+  </si>
+  <si>
+    <t>PPDA 2nd Half</t>
   </si>
 </sst>
 </file>
@@ -455,9 +461,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -773,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DD32"/>
+  <dimension ref="A1:DF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CK1" workbookViewId="0">
+      <selection activeCell="CO34" sqref="CO34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -877,9 +884,11 @@
     <col min="105" max="105" width="10.75" bestFit="1" customWidth="1"/>
     <col min="106" max="107" width="16.25" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:110" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -901,130 +910,130 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AX1" t="s">
@@ -1033,25 +1042,25 @@
       <c r="AY1" t="s">
         <v>22</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="BC1" t="s">
         <v>24</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="BG1" t="s">
@@ -1060,40 +1069,40 @@
       <c r="BH1" t="s">
         <v>27</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BR1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BS1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BT1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="BU1" t="s">
@@ -1111,76 +1120,76 @@
       <c r="BY1" t="s">
         <v>36</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CA1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CB1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CC1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CD1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CE1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CF1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CG1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CH1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CI1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CK1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CL1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CM1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CN1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CO1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CP1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CR1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CS1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CT1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CU1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CV1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CW1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="CX1" t="s">
@@ -1204,8 +1213,14 @@
       <c r="DD1" t="s">
         <v>51</v>
       </c>
+      <c r="DE1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="2" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
@@ -1530,8 +1545,14 @@
       <c r="DD2">
         <v>6.15</v>
       </c>
+      <c r="DE2" s="2">
+        <v>6.95</v>
+      </c>
+      <c r="DF2" s="2">
+        <v>4.71</v>
+      </c>
     </row>
-    <row r="3" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -1856,8 +1877,14 @@
       <c r="DD3">
         <v>7.79</v>
       </c>
+      <c r="DE3" s="2">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="DF3" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -2182,8 +2209,14 @@
       <c r="DD4">
         <v>4.26</v>
       </c>
+      <c r="DE4" s="2">
+        <v>5.13</v>
+      </c>
+      <c r="DF4" s="2">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="5" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -2508,8 +2541,14 @@
       <c r="DD5">
         <v>8.81</v>
       </c>
+      <c r="DE5" s="2">
+        <v>6.92</v>
+      </c>
+      <c r="DF5" s="2">
+        <v>11.33</v>
+      </c>
     </row>
-    <row r="6" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -2834,8 +2873,14 @@
       <c r="DD6">
         <v>11.08</v>
       </c>
+      <c r="DE6" s="2">
+        <v>8.27</v>
+      </c>
+      <c r="DF6" s="2">
+        <v>15.3</v>
+      </c>
     </row>
-    <row r="7" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
@@ -3160,8 +3205,14 @@
       <c r="DD7">
         <v>15.1</v>
       </c>
+      <c r="DE7" s="2">
+        <v>14.83</v>
+      </c>
+      <c r="DF7" s="2">
+        <v>15.44</v>
+      </c>
     </row>
-    <row r="8" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
@@ -3486,8 +3537,14 @@
       <c r="DD8">
         <v>12.19</v>
       </c>
+      <c r="DE8" s="2">
+        <v>16.18</v>
+      </c>
+      <c r="DF8" s="2">
+        <v>9.27</v>
+      </c>
     </row>
-    <row r="9" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -3812,8 +3869,14 @@
       <c r="DD9">
         <v>9.4499999999999993</v>
       </c>
+      <c r="DE9" s="2">
+        <v>8.14</v>
+      </c>
+      <c r="DF9" s="2">
+        <v>11.25</v>
+      </c>
     </row>
-    <row r="10" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
@@ -4138,8 +4201,14 @@
       <c r="DD10">
         <v>6</v>
       </c>
+      <c r="DE10" s="2">
+        <v>6.22</v>
+      </c>
+      <c r="DF10" s="2">
+        <v>5.79</v>
+      </c>
     </row>
-    <row r="11" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
@@ -4464,8 +4533,14 @@
       <c r="DD11">
         <v>8.5299999999999994</v>
       </c>
+      <c r="DE11" s="2">
+        <v>10.87</v>
+      </c>
+      <c r="DF11" s="2">
+        <v>6.68</v>
+      </c>
     </row>
-    <row r="12" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
@@ -4790,8 +4865,14 @@
       <c r="DD12">
         <v>12.5</v>
       </c>
+      <c r="DE12" s="2">
+        <v>7.54</v>
+      </c>
+      <c r="DF12" s="2">
+        <v>25.4</v>
+      </c>
     </row>
-    <row r="13" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>83</v>
       </c>
@@ -5116,8 +5197,14 @@
       <c r="DD13">
         <v>12.89</v>
       </c>
+      <c r="DE13" s="2">
+        <v>10.71</v>
+      </c>
+      <c r="DF13" s="2">
+        <v>15.07</v>
+      </c>
     </row>
-    <row r="14" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
@@ -5442,8 +5529,14 @@
       <c r="DD14">
         <v>8.6199999999999992</v>
       </c>
+      <c r="DE14" s="2">
+        <v>10</v>
+      </c>
+      <c r="DF14" s="2">
+        <v>7.23</v>
+      </c>
     </row>
-    <row r="15" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
@@ -5768,8 +5861,14 @@
       <c r="DD15">
         <v>11.88</v>
       </c>
+      <c r="DE15" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="DF15" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="16" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
@@ -6094,8 +6193,14 @@
       <c r="DD16">
         <v>6.44</v>
       </c>
+      <c r="DE16" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="DF16" s="2">
+        <v>5.07</v>
+      </c>
     </row>
-    <row r="17" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>93</v>
       </c>
@@ -6420,8 +6525,14 @@
       <c r="DD17">
         <v>11.6</v>
       </c>
+      <c r="DE17" s="2">
+        <v>13</v>
+      </c>
+      <c r="DF17" s="2">
+        <v>10.67</v>
+      </c>
     </row>
-    <row r="18" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>96</v>
       </c>
@@ -6746,8 +6857,14 @@
       <c r="DD18">
         <v>11.69</v>
       </c>
+      <c r="DE18" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="DF18" s="2">
+        <v>10.18</v>
+      </c>
     </row>
-    <row r="19" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>98</v>
       </c>
@@ -7072,8 +7189,14 @@
       <c r="DD19">
         <v>7.18</v>
       </c>
+      <c r="DE19" s="2">
+        <v>5.33</v>
+      </c>
+      <c r="DF19" s="2">
+        <v>11.14</v>
+      </c>
     </row>
-    <row r="20" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>100</v>
       </c>
@@ -7398,8 +7521,14 @@
       <c r="DD20">
         <v>11</v>
       </c>
+      <c r="DE20" s="2">
+        <v>7.78</v>
+      </c>
+      <c r="DF20" s="2">
+        <v>16.27</v>
+      </c>
     </row>
-    <row r="21" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>102</v>
       </c>
@@ -7724,8 +7853,14 @@
       <c r="DD21">
         <v>8.27</v>
       </c>
+      <c r="DE21" s="2">
+        <v>10.85</v>
+      </c>
+      <c r="DF21" s="2">
+        <v>6.6</v>
+      </c>
     </row>
-    <row r="22" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>104</v>
       </c>
@@ -8050,8 +8185,14 @@
       <c r="DD22">
         <v>8.1300000000000008</v>
       </c>
+      <c r="DE22" s="2">
+        <v>7.21</v>
+      </c>
+      <c r="DF22" s="2">
+        <v>9.4600000000000009</v>
+      </c>
     </row>
-    <row r="23" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
@@ -8376,8 +8517,14 @@
       <c r="DD23">
         <v>6.57</v>
       </c>
+      <c r="DE23" s="2">
+        <v>10.91</v>
+      </c>
+      <c r="DF23" s="2">
+        <v>4.05</v>
+      </c>
     </row>
-    <row r="24" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>107</v>
       </c>
@@ -8702,8 +8849,14 @@
       <c r="DD24">
         <v>9.2799999999999994</v>
       </c>
+      <c r="DE24" s="2">
+        <v>8.07</v>
+      </c>
+      <c r="DF24" s="2">
+        <v>11.1</v>
+      </c>
     </row>
-    <row r="25" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
@@ -9028,8 +9181,14 @@
       <c r="DD25">
         <v>7.2</v>
       </c>
+      <c r="DE25" s="2">
+        <v>6</v>
+      </c>
+      <c r="DF25" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="26" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -9354,8 +9513,14 @@
       <c r="DD26">
         <v>6.53</v>
       </c>
+      <c r="DE26" s="2">
+        <v>7.81</v>
+      </c>
+      <c r="DF26" s="2">
+        <v>5.07</v>
+      </c>
     </row>
-    <row r="27" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -9680,8 +9845,14 @@
       <c r="DD27">
         <v>4.6100000000000003</v>
       </c>
+      <c r="DE27" s="2">
+        <v>5.84</v>
+      </c>
+      <c r="DF27" s="2">
+        <v>3.55</v>
+      </c>
     </row>
-    <row r="28" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>116</v>
       </c>
@@ -10006,8 +10177,14 @@
       <c r="DD28">
         <v>9.1</v>
       </c>
+      <c r="DE28" s="2">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="DF28" s="2">
+        <v>9.93</v>
+      </c>
     </row>
-    <row r="29" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
@@ -10332,8 +10509,14 @@
       <c r="DD29">
         <v>5.36</v>
       </c>
+      <c r="DE29" s="2">
+        <v>6.31</v>
+      </c>
+      <c r="DF29" s="2">
+        <v>4.53</v>
+      </c>
     </row>
-    <row r="30" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>120</v>
       </c>
@@ -10658,8 +10841,14 @@
       <c r="DD30">
         <v>7.26</v>
       </c>
+      <c r="DE30" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="DF30" s="2">
+        <v>9.18</v>
+      </c>
     </row>
-    <row r="31" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>122</v>
       </c>
@@ -10984,8 +11173,14 @@
       <c r="DD31">
         <v>6.24</v>
       </c>
+      <c r="DE31" s="2">
+        <v>5.43</v>
+      </c>
+      <c r="DF31" s="2">
+        <v>7.31</v>
+      </c>
     </row>
-    <row r="32" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:110" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>125</v>
       </c>
@@ -11309,19 +11504,18 @@
       </c>
       <c r="DD32">
         <v>8.67</v>
+      </c>
+      <c r="DE32" s="2">
+        <v>7.76</v>
+      </c>
+      <c r="DF32" s="2">
+        <v>9.85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="CI1:CK1"/>
     <mergeCell ref="CL1:CN1"/>
     <mergeCell ref="CO1:CQ1"/>
     <mergeCell ref="CR1:CT1"/>
@@ -11338,8 +11532,15 @@
     <mergeCell ref="BR1:BT1"/>
     <mergeCell ref="BZ1:CB1"/>
     <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="CF1:CH1"/>
-    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Y1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
